--- a/SQL_HW_Answers.xlsx
+++ b/SQL_HW_Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKoyuncu\Desktop\SQL_Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304DBCD3-4E30-4CB8-BBFE-ABD9FAC0D9E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F88305-3D30-493F-BD76-4D1342207084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{62169798-4C10-4818-93FE-05BA9B8561E8}"/>
   </bookViews>
@@ -29,10 +29,214 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>SELECT CustomerID, CompanyName, Address FROM Customers
+WHERE City = 'Paris' OR  City = 'London' ;</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT   QuantityPerUnit AS 'Stored in bottles' FROM Products p
+WHERE p.QuantityPerUnit LIKE '%bottles%'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT  S.ContactName, s.CompanyName, s.Country,  QuantityPerUnit AS 'Stored in bottles' FROM Products p
+JOIN  suppliers s ON   p.SupplierID = S.SupplierID
+WHERE p.QuantityPerUnit LIKE '%bottles%'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I first looked into the customer table to see what information was available and typed out the code to the left. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went into the products table and looked into the QuantityPerUnit table to look for any products with 'bottles'. I found that many of the string had bottles inside it. I used the wildcard on both sides to search all strings using the word.
+</t>
+  </si>
+  <si>
+    <t>For this question, I used the same syntax and joined the suppliers table with a matching column which was also inside the products table to find all the information needed.</t>
+  </si>
+  <si>
+    <t>SELECT c.CategoryName , COUNT (c.CategoryID) AS 'Total Number of Products'
+FROM  Categories c
+JOIN products p ON p.CategoryID = c.CategoryID
+GROUP BY  c.CategoryName 
+ORDER BY COUNT (c.CategoryID
+)DESC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I first searched the categories table to find the first relevant information. I then matched and joined it with the products table. I then counted the repeated category IDs and grouped it on the bottom to give the rounded number of each product in their categories. You need to group it and then order it by the count which you used in the beginning with the DESC inorder to get the highest value first 
+</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPLAIN HOW FAR I GOT </t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT TitleOfCourtesy + ' ' +FirstName + ' ' +LastName AS 'Employee Name', City  FROM Employees;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to the Employee table to look at the information which I needed to join to get the full name in one column. I used the +' '+ to join the columns and then used the Alias 'AS' to name the column. I then added the city column to the end to show where they live. 
+</t>
+  </si>
+  <si>
+    <t>187 Orders that have orders of freight more than 100</t>
+  </si>
+  <si>
+    <t>Q7.1</t>
+  </si>
+  <si>
+    <t>Q7.2</t>
+  </si>
+  <si>
+    <t>Q7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT  DISTINCT ShipCountry, Freight AS 'Total Freight Amount'  FROM  Orders
+WHERE Freight &gt;= 100 </t>
+  </si>
+  <si>
+    <t>9 orders from the UK that had freight orders over 100</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT Freight,  ShipCountry FROM Orders
+WHERE ShipCountry= 'USA'  AND Freight&gt;100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT Freight,  ShipCountry FROM Orders
+WHERE ShipCountry= 'UK'  AND Freight&gt;100 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 orders from the USA that had freight orders over 100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total of 49 orders from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7 FINAL </t>
+  </si>
+  <si>
+    <t>Subquiry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT COUNT(*) AS 'Total orders to UK and USA 'FROM Orders
+WHERE ShipCountry IN ('USA', 'UK')  AND Freight&gt;100.00; </t>
+  </si>
+  <si>
+    <t>Gives the output 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8 </t>
+  </si>
+  <si>
+    <t>USE Northwind
+SELECT *, ( Discount*Quantity)  AS 'Discounted Amount', (Quantity*UnitPrice) AS 'Non Discounted price', ((UnitPrice-discount ) * Quantity) AS 'Price After Discount' FROM [Order Details]
+WHERE Discount IN (0.25 ,0.15) ORDER BY Quantity DESC;</t>
+  </si>
+  <si>
+    <t>OrderID 10935 has the most discount applied at 0.25 X 120 quuantity = 30</t>
+  </si>
+  <si>
+    <t>Q2.1</t>
+  </si>
+  <si>
+    <t>SECTION2</t>
+  </si>
+  <si>
+    <t>DO ONE USING PERCENTAGES TOOO!!!!!!!!!!1</t>
+  </si>
+  <si>
+    <t>CREATE DATABASE SPARTANS2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE Table SpartanEngineering36_37 ( 
+ID int IDENTITY (1,1) PRIMARY KEY,
+Title varchar (8),
+First_Name varchar (15),
+Last_Name varchar (15),
+Room_Name varchar (15),
+Trainer_Name varchar (30),
+University_Attended varchar(40),
+Mark_Achieved varchar (10),
+Course_Taken_Name varchar (30),
+Hobbies varchar (40)
+);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO SPARTANS2019 
+(Title, First_Name, 
+Last_Name, Room_Name, Trainer_Name, 
+University_Attended, Mark_Achieved, 
+University_Course, Hobbies)
+Values ('Mr', 'Ally', 
+'Romeo', 'Room 3', 'Harpi Markson Flilli', 
+'Doncaster University', '2:1', 
+'Computer Science', 'Archery');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO spartanEngineering36_37
+VALUES  ('Mr', 'Manning', 
+'Donde', 'Room 3', 'Harpi Markson Flilli', 
+'Pancaster University', '1st', 
+'Bio chemistry', 'Fox Hunting') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select  E.EmployeeID , e.Title, e.FirstName , e.LastName, e.ReportsTo AS ' Reports To EmployeeID'
+FROM Employees E
+--JOIN Employees ON E.EmployeeID = E.EmployeeID
+;
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,8 +264,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,14 +586,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03709FA6-0221-49B1-AB38-E3C4A9461480}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3.1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>